--- a/biology/Botanique/Émile_Joseph_Taquet/Émile_Joseph_Taquet.xlsx
+++ b/biology/Botanique/Émile_Joseph_Taquet/Émile_Joseph_Taquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Joseph_Taquet</t>
+          <t>Émile_Joseph_Taquet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile Joseph Taquet, né le 30 octobre 1873 à Hecq (département du Nord) et mort le 27 janvier 1952 à Taïkou (aujourd'hui Daegu) en Corée, est un prêtre missionnaire et collecteur botanique français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Joseph_Taquet</t>
+          <t>Émile_Joseph_Taquet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile Joseph Taquet voit le jour à Hecq (Nord) le 30 octobre 1873, fils d'Hippolyte Taquet (1840-1901) et de son épouse, née Anna Wibaille (1850-1937). Il écrit dans son journal (qu'il a commencé à rédiger le 28 octobre 1897 juste avant son départ pour la Corée et qu'il terminera le 14 janvier 1898) :
 « (…) C'était en 1873. Dans une petite maison du petit Preux, un petit bonhomme faisait son apparition (…) »
@@ -522,7 +536,7 @@
 En 1903, 30 baptisés et 200 catéchumènes
 En 1904, 35 baptêmes d'adultes
 En 1905, il recueille 157 baptêmes
-En 1911, il introduit à Jeju, où il est connu comme 엄탁가 en coréen, et met en culture 15 mandariniers et tangors améliorées depuis le Japon, débutant ainsi le grande culture des agrumes coréens de Jeju[1].
+En 1911, il introduit à Jeju, où il est connu comme 엄탁가 en coréen, et met en culture 15 mandariniers et tangors améliorées depuis le Japon, débutant ainsi le grande culture des agrumes coréens de Jeju.
 En 1916, il est affecté au poste de Mok-po. Il s’intéresse alors à la botanique et il collectionne les plantes qu'il envoie aux différents musées d'Europe. Il écrit dans l’une de ses lettres : 
 « Du ruisseau au pic le plus élevé de la montagne, on peut compter plus de deux lieues et tout cet espace est occupé par une végétation des plus luxuriantes. Quelles riches collections de plantes ne pourrais-je faire dans ces promenades ! ». 
 Il envoie régulièrement ses collections au Muséum national d'histoire naturelle à Paris, où son herbier est étudié par Mgr Léveillé, à la demande du directeur du département de botanique, Adrien Franchet. Certaines portent son nom, telles que Dryopteris taqueti, Rosa taqueti, Diplazium taqueti.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Joseph_Taquet</t>
+          <t>Émile_Joseph_Taquet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Espèces qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allium taquetii H.Lév. &amp; Vaniot - Alliacée
 Euphorbia taqueti H.Lév. &amp; Vaniot - Euphorbiacée
